--- a/PSME_Flags_tracking.xlsx
+++ b/PSME_Flags_tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edeegan\OneDrive - DOI\FFIqaqc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987A312C-CAC2-4044-816B-56B373FB4FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A9F0DF-CAB4-48BD-B3EE-AE1794C93A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47910" yWindow="-15870" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47910" yWindow="-15870" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PSME-01" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="709">
   <si>
     <t>Issue</t>
   </si>
@@ -2122,6 +2122,42 @@
   </si>
   <si>
     <t>change year 01 dbh to 3.5 (resting dbh)</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>ESD 12/18/23</t>
+  </si>
+  <si>
+    <t>delete dbh</t>
+  </si>
+  <si>
+    <t>can't find this tree on the data sheet</t>
+  </si>
+  <si>
+    <t>one is a pole in quarter one and one is a tree in quarter 2, both dead with no dbh</t>
+  </si>
+  <si>
+    <t>101.5 recorded correctly, tag # goes from 8131 to 813. 102.6 is not in this plot, incorrectly flagged</t>
+  </si>
+  <si>
+    <t>2023 data entered electronically, no data sheet to review (excel=whats in FFI)</t>
+  </si>
+  <si>
+    <t>ask windy if 2023 dbh should be filled in w year 10 dbh</t>
+  </si>
+  <si>
+    <t>dbh missing from excel sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete X? </t>
+  </si>
+  <si>
+    <t>no crown class for pole tree, but its at 15.1? But its dead? Overall delete X I think…</t>
+  </si>
+  <si>
+    <t>no crown class or dbhs were taken in 2008</t>
   </si>
 </sst>
 </file>
@@ -2457,7 +2493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
@@ -4597,8 +4633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4968,25 +5004,70 @@
       <c r="A24" t="s">
         <v>93</v>
       </c>
+      <c r="B24" t="s">
+        <v>651</v>
+      </c>
+      <c r="C24" t="s">
+        <v>698</v>
+      </c>
+      <c r="D24" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>94</v>
       </c>
+      <c r="B25" t="s">
+        <v>651</v>
+      </c>
+      <c r="C25" t="s">
+        <v>698</v>
+      </c>
+      <c r="D25" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>95</v>
       </c>
+      <c r="B26" t="s">
+        <v>651</v>
+      </c>
+      <c r="C26" t="s">
+        <v>698</v>
+      </c>
+      <c r="D26" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>96</v>
       </c>
+      <c r="B27" t="s">
+        <v>651</v>
+      </c>
+      <c r="C27" t="s">
+        <v>698</v>
+      </c>
+      <c r="D27" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>97</v>
+      </c>
+      <c r="B28" t="s">
+        <v>651</v>
+      </c>
+      <c r="C28" t="s">
+        <v>698</v>
+      </c>
+      <c r="D28" t="s">
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -4999,9 +5080,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="165.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -5024,275 +5110,902 @@
       <c r="A2" t="s">
         <v>98</v>
       </c>
+      <c r="B2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C2" t="s">
+        <v>698</v>
+      </c>
+      <c r="D2" t="s">
+        <v>652</v>
+      </c>
+      <c r="E2" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>99</v>
       </c>
+      <c r="B3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C3" t="s">
+        <v>698</v>
+      </c>
+      <c r="D3" t="s">
+        <v>652</v>
+      </c>
+      <c r="E3" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>100</v>
       </c>
+      <c r="B4" t="s">
+        <v>651</v>
+      </c>
+      <c r="C4" t="s">
+        <v>698</v>
+      </c>
+      <c r="D4" t="s">
+        <v>652</v>
+      </c>
+      <c r="E4" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>101</v>
       </c>
+      <c r="B5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C5" t="s">
+        <v>698</v>
+      </c>
+      <c r="D5" t="s">
+        <v>652</v>
+      </c>
+      <c r="E5" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>102</v>
       </c>
+      <c r="B6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C6" t="s">
+        <v>698</v>
+      </c>
+      <c r="D6" t="s">
+        <v>652</v>
+      </c>
+      <c r="E6" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>103</v>
       </c>
+      <c r="B7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C7" t="s">
+        <v>698</v>
+      </c>
+      <c r="D7" t="s">
+        <v>652</v>
+      </c>
+      <c r="E7" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>104</v>
       </c>
+      <c r="B8" t="s">
+        <v>651</v>
+      </c>
+      <c r="C8" t="s">
+        <v>698</v>
+      </c>
+      <c r="D8" t="s">
+        <v>652</v>
+      </c>
+      <c r="E8" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>105</v>
       </c>
+      <c r="B9" t="s">
+        <v>651</v>
+      </c>
+      <c r="C9" t="s">
+        <v>698</v>
+      </c>
+      <c r="D9" t="s">
+        <v>652</v>
+      </c>
+      <c r="E9" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>106</v>
       </c>
+      <c r="B10" t="s">
+        <v>651</v>
+      </c>
+      <c r="C10" t="s">
+        <v>698</v>
+      </c>
+      <c r="D10" t="s">
+        <v>652</v>
+      </c>
+      <c r="E10" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>107</v>
       </c>
+      <c r="B11" t="s">
+        <v>651</v>
+      </c>
+      <c r="C11" t="s">
+        <v>698</v>
+      </c>
+      <c r="D11" t="s">
+        <v>652</v>
+      </c>
+      <c r="E11" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>108</v>
       </c>
+      <c r="B12" t="s">
+        <v>651</v>
+      </c>
+      <c r="C12" t="s">
+        <v>698</v>
+      </c>
+      <c r="D12" t="s">
+        <v>652</v>
+      </c>
+      <c r="E12" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>109</v>
       </c>
+      <c r="B13" t="s">
+        <v>651</v>
+      </c>
+      <c r="C13" t="s">
+        <v>698</v>
+      </c>
+      <c r="D13" t="s">
+        <v>652</v>
+      </c>
+      <c r="E13" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>110</v>
       </c>
+      <c r="B14" t="s">
+        <v>651</v>
+      </c>
+      <c r="C14" t="s">
+        <v>698</v>
+      </c>
+      <c r="D14" t="s">
+        <v>652</v>
+      </c>
+      <c r="E14" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>111</v>
       </c>
+      <c r="B15" t="s">
+        <v>651</v>
+      </c>
+      <c r="C15" t="s">
+        <v>698</v>
+      </c>
+      <c r="D15" t="s">
+        <v>652</v>
+      </c>
+      <c r="E15" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>651</v>
+      </c>
+      <c r="C16" t="s">
+        <v>698</v>
+      </c>
+      <c r="D16" t="s">
+        <v>652</v>
+      </c>
+      <c r="E16" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>651</v>
+      </c>
+      <c r="C17" t="s">
+        <v>698</v>
+      </c>
+      <c r="D17" t="s">
+        <v>652</v>
+      </c>
+      <c r="E17" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>651</v>
+      </c>
+      <c r="C18" t="s">
+        <v>698</v>
+      </c>
+      <c r="D18" t="s">
+        <v>652</v>
+      </c>
+      <c r="E18" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>651</v>
+      </c>
+      <c r="C19" t="s">
+        <v>698</v>
+      </c>
+      <c r="D19" t="s">
+        <v>652</v>
+      </c>
+      <c r="E19" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>651</v>
+      </c>
+      <c r="C20" t="s">
+        <v>698</v>
+      </c>
+      <c r="D20" t="s">
+        <v>652</v>
+      </c>
+      <c r="E20" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>651</v>
+      </c>
+      <c r="C21" t="s">
+        <v>698</v>
+      </c>
+      <c r="D21" t="s">
+        <v>652</v>
+      </c>
+      <c r="E21" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>651</v>
+      </c>
+      <c r="C22" t="s">
+        <v>698</v>
+      </c>
+      <c r="D22" t="s">
+        <v>652</v>
+      </c>
+      <c r="E22" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>651</v>
+      </c>
+      <c r="C23" t="s">
+        <v>698</v>
+      </c>
+      <c r="D23" t="s">
+        <v>652</v>
+      </c>
+      <c r="E23" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>651</v>
+      </c>
+      <c r="C24" t="s">
+        <v>698</v>
+      </c>
+      <c r="D24" t="s">
+        <v>652</v>
+      </c>
+      <c r="E24" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>651</v>
+      </c>
+      <c r="C25" t="s">
+        <v>698</v>
+      </c>
+      <c r="D25" t="s">
+        <v>652</v>
+      </c>
+      <c r="E25" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>651</v>
+      </c>
+      <c r="C26" t="s">
+        <v>698</v>
+      </c>
+      <c r="D26" t="s">
+        <v>652</v>
+      </c>
+      <c r="E26" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>651</v>
+      </c>
+      <c r="C27" t="s">
+        <v>698</v>
+      </c>
+      <c r="D27" t="s">
+        <v>652</v>
+      </c>
+      <c r="E27" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>651</v>
+      </c>
+      <c r="C28" t="s">
+        <v>698</v>
+      </c>
+      <c r="D28" t="s">
+        <v>652</v>
+      </c>
+      <c r="E28" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>651</v>
+      </c>
+      <c r="C29" t="s">
+        <v>698</v>
+      </c>
+      <c r="D29" t="s">
+        <v>652</v>
+      </c>
+      <c r="E29" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>651</v>
+      </c>
+      <c r="C30" t="s">
+        <v>698</v>
+      </c>
+      <c r="D30" t="s">
+        <v>652</v>
+      </c>
+      <c r="E30" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>697</v>
+      </c>
+      <c r="C31" t="s">
+        <v>698</v>
+      </c>
+      <c r="D31" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>697</v>
+      </c>
+      <c r="C32" t="s">
+        <v>698</v>
+      </c>
+      <c r="D32" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>697</v>
+      </c>
+      <c r="C33" t="s">
+        <v>698</v>
+      </c>
+      <c r="D33" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>697</v>
+      </c>
+      <c r="C34" t="s">
+        <v>698</v>
+      </c>
+      <c r="D34" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>651</v>
+      </c>
+      <c r="C35" t="s">
+        <v>698</v>
+      </c>
+      <c r="D35" t="s">
+        <v>652</v>
+      </c>
+      <c r="E35" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>644</v>
+      </c>
+      <c r="C36" t="s">
+        <v>698</v>
+      </c>
+      <c r="E36" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>697</v>
+      </c>
+      <c r="C37" t="s">
+        <v>698</v>
+      </c>
+      <c r="D37" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>697</v>
+      </c>
+      <c r="C38" t="s">
+        <v>698</v>
+      </c>
+      <c r="D38" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>697</v>
+      </c>
+      <c r="C39" t="s">
+        <v>698</v>
+      </c>
+      <c r="D39" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>697</v>
+      </c>
+      <c r="C40" t="s">
+        <v>698</v>
+      </c>
+      <c r="D40" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>651</v>
+      </c>
+      <c r="C41" t="s">
+        <v>698</v>
+      </c>
+      <c r="D41" t="s">
+        <v>652</v>
+      </c>
+      <c r="E41" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>651</v>
+      </c>
+      <c r="C42" t="s">
+        <v>698</v>
+      </c>
+      <c r="D42" t="s">
+        <v>652</v>
+      </c>
+      <c r="E42" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>697</v>
+      </c>
+      <c r="C43" t="s">
+        <v>698</v>
+      </c>
+      <c r="E43" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>697</v>
+      </c>
+      <c r="C44" t="s">
+        <v>698</v>
+      </c>
+      <c r="D44" t="s">
+        <v>663</v>
+      </c>
+      <c r="E44" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>651</v>
+      </c>
+      <c r="C45" t="s">
+        <v>698</v>
+      </c>
+      <c r="D45" t="s">
+        <v>652</v>
+      </c>
+      <c r="E45" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>651</v>
+      </c>
+      <c r="C46" t="s">
+        <v>698</v>
+      </c>
+      <c r="D46" t="s">
+        <v>652</v>
+      </c>
+      <c r="E46" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>651</v>
+      </c>
+      <c r="C47" t="s">
+        <v>698</v>
+      </c>
+      <c r="D47" t="s">
+        <v>652</v>
+      </c>
+      <c r="E47" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>651</v>
+      </c>
+      <c r="C48" t="s">
+        <v>698</v>
+      </c>
+      <c r="D48" t="s">
+        <v>652</v>
+      </c>
+      <c r="E48" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>651</v>
+      </c>
+      <c r="C49" t="s">
+        <v>698</v>
+      </c>
+      <c r="D49" t="s">
+        <v>652</v>
+      </c>
+      <c r="E49" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>651</v>
+      </c>
+      <c r="C50" t="s">
+        <v>698</v>
+      </c>
+      <c r="D50" t="s">
+        <v>652</v>
+      </c>
+      <c r="E50" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>651</v>
+      </c>
+      <c r="C51" t="s">
+        <v>698</v>
+      </c>
+      <c r="D51" t="s">
+        <v>652</v>
+      </c>
+      <c r="E51" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>651</v>
+      </c>
+      <c r="C52" t="s">
+        <v>698</v>
+      </c>
+      <c r="D52" t="s">
+        <v>652</v>
+      </c>
+      <c r="E52" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>651</v>
+      </c>
+      <c r="C53" t="s">
+        <v>698</v>
+      </c>
+      <c r="D53" t="s">
+        <v>652</v>
+      </c>
+      <c r="E53" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>651</v>
+      </c>
+      <c r="C54" t="s">
+        <v>698</v>
+      </c>
+      <c r="D54" t="s">
+        <v>652</v>
+      </c>
+      <c r="E54" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>644</v>
+      </c>
+      <c r="C55" t="s">
+        <v>698</v>
+      </c>
+      <c r="E55" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>151</v>
+      </c>
+      <c r="B56" t="s">
+        <v>651</v>
+      </c>
+      <c r="C56" t="s">
+        <v>698</v>
+      </c>
+      <c r="D56" t="s">
+        <v>652</v>
+      </c>
+      <c r="E56" t="s">
+        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -5305,9 +6018,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="182.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -5330,153 +6048,402 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="B2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C2" t="s">
+        <v>698</v>
+      </c>
+      <c r="E2" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>152</v>
       </c>
+      <c r="B3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C3" t="s">
+        <v>698</v>
+      </c>
+      <c r="D3" t="s">
+        <v>704</v>
+      </c>
+      <c r="E3" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>153</v>
       </c>
+      <c r="B4" t="s">
+        <v>651</v>
+      </c>
+      <c r="C4" t="s">
+        <v>698</v>
+      </c>
+      <c r="D4" t="s">
+        <v>652</v>
+      </c>
+      <c r="E4" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>154</v>
       </c>
+      <c r="B5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C5" t="s">
+        <v>698</v>
+      </c>
+      <c r="D5" t="s">
+        <v>652</v>
+      </c>
+      <c r="E5" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>155</v>
       </c>
+      <c r="B6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C6" t="s">
+        <v>698</v>
+      </c>
+      <c r="D6" t="s">
+        <v>652</v>
+      </c>
+      <c r="E6" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>156</v>
       </c>
+      <c r="B7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C7" t="s">
+        <v>698</v>
+      </c>
+      <c r="D7" t="s">
+        <v>652</v>
+      </c>
+      <c r="E7" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>157</v>
       </c>
+      <c r="B8" t="s">
+        <v>651</v>
+      </c>
+      <c r="C8" t="s">
+        <v>698</v>
+      </c>
+      <c r="D8" t="s">
+        <v>652</v>
+      </c>
+      <c r="E8" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>158</v>
       </c>
+      <c r="B9" t="s">
+        <v>651</v>
+      </c>
+      <c r="C9" t="s">
+        <v>698</v>
+      </c>
+      <c r="D9" t="s">
+        <v>652</v>
+      </c>
+      <c r="E9" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>159</v>
       </c>
+      <c r="B10" t="s">
+        <v>651</v>
+      </c>
+      <c r="C10" t="s">
+        <v>698</v>
+      </c>
+      <c r="D10" t="s">
+        <v>652</v>
+      </c>
+      <c r="E10" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>160</v>
       </c>
+      <c r="B11" t="s">
+        <v>651</v>
+      </c>
+      <c r="C11" t="s">
+        <v>698</v>
+      </c>
+      <c r="D11" t="s">
+        <v>652</v>
+      </c>
+      <c r="E11" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>161</v>
       </c>
+      <c r="B12" t="s">
+        <v>651</v>
+      </c>
+      <c r="C12" t="s">
+        <v>698</v>
+      </c>
+      <c r="D12" t="s">
+        <v>652</v>
+      </c>
+      <c r="E12" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>162</v>
       </c>
+      <c r="B13" t="s">
+        <v>651</v>
+      </c>
+      <c r="C13" t="s">
+        <v>698</v>
+      </c>
+      <c r="D13" t="s">
+        <v>652</v>
+      </c>
+      <c r="E13" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>163</v>
       </c>
+      <c r="B14" t="s">
+        <v>651</v>
+      </c>
+      <c r="C14" t="s">
+        <v>698</v>
+      </c>
+      <c r="D14" t="s">
+        <v>652</v>
+      </c>
+      <c r="E14" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>164</v>
       </c>
+      <c r="B15" t="s">
+        <v>651</v>
+      </c>
+      <c r="C15" t="s">
+        <v>698</v>
+      </c>
+      <c r="D15" t="s">
+        <v>652</v>
+      </c>
+      <c r="E15" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>651</v>
+      </c>
+      <c r="C16" t="s">
+        <v>698</v>
+      </c>
+      <c r="D16" t="s">
+        <v>652</v>
+      </c>
+      <c r="E16" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>651</v>
+      </c>
+      <c r="C17" t="s">
+        <v>698</v>
+      </c>
+      <c r="D17" t="s">
+        <v>652</v>
+      </c>
+      <c r="E17" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>651</v>
+      </c>
+      <c r="C18" t="s">
+        <v>698</v>
+      </c>
+      <c r="D18" t="s">
+        <v>652</v>
+      </c>
+      <c r="E18" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>651</v>
+      </c>
+      <c r="C19" t="s">
+        <v>698</v>
+      </c>
+      <c r="D19" t="s">
+        <v>652</v>
+      </c>
+      <c r="E19" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>651</v>
+      </c>
+      <c r="C20" t="s">
+        <v>698</v>
+      </c>
+      <c r="D20" t="s">
+        <v>652</v>
+      </c>
+      <c r="E20" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>651</v>
+      </c>
+      <c r="C21" t="s">
+        <v>698</v>
+      </c>
+      <c r="D21" t="s">
+        <v>706</v>
+      </c>
+      <c r="E21" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>651</v>
+      </c>
+      <c r="C22" t="s">
+        <v>698</v>
+      </c>
+      <c r="D22" t="s">
+        <v>663</v>
+      </c>
+      <c r="E22" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>181</v>
       </c>

--- a/PSME_Flags_tracking.xlsx
+++ b/PSME_Flags_tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edeegan\OneDrive - DOI\FFIqaqc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A9F0DF-CAB4-48BD-B3EE-AE1794C93A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737DE870-EDA5-40BC-A444-0DD49B154D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47910" yWindow="-15870" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47910" yWindow="-15870" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PSME-01" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,25 @@
     <sheet name="PSME-10" sheetId="10" r:id="rId10"/>
     <sheet name="Comments" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="718">
   <si>
     <t>Issue</t>
   </si>
@@ -51,21 +64,54 @@
 </t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>ESD 12/13/23</t>
+  </si>
+  <si>
+    <t>no action - issue recorded and noted</t>
+  </si>
+  <si>
     <t>Outlier values detected according to Rosner test. They are 18, 17, 17 with events PSME-07 01Year20, PSME-01 01Year20, PSME-04 01Year20 For reference, max, min, and mean of seed counts are 18 0 2.84496124031008</t>
   </si>
   <si>
+    <t>correct for PSME 1 Year 20 at least</t>
+  </si>
+  <si>
     <t>Tag number  595  in tree data set has  D recorded for crown class in sample events PSME-01 00PR01 which is not included in the acceptable list of BAD, CS, LBS, RS, or blank for overstory dead trees</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>AMB 12/19/23</t>
+  </si>
+  <si>
+    <t>delete crown class?</t>
+  </si>
+  <si>
+    <t>recorded incorrectly on data sheet</t>
+  </si>
+  <si>
     <t>Tag number  611  in tree data set has  D recorded for crown class in sample events PSME-01 00PR01 which is not included in the acceptable list of BAD, CS, LBS, RS, or blank for overstory dead trees</t>
   </si>
   <si>
     <t>Tag number  617  in tree data set has  D recorded for crown class in sample events PSME-01 00PR01 which is not included in the acceptable list of BAD, CS, LBS, RS, or blank for overstory dead trees</t>
   </si>
   <si>
+    <t>recorded incorrectly on data sheet, question mark next to 1</t>
+  </si>
+  <si>
     <t>Tag number  619  in tree data set has  D recorded for crown class in sample events PSME-01 00PR01 which is not included in the acceptable list of BAD, CS, LBS, RS, or blank for overstory dead trees</t>
   </si>
   <si>
+    <t>look at physical data sheet</t>
+  </si>
+  <si>
+    <t>this year wasn't scanned</t>
+  </si>
+  <si>
     <t>Tag number  621  in tree data set has  D recorded for crown class in sample events PSME-01 00PR01 which is not included in the acceptable list of BAD, CS, LBS, RS, or blank for overstory dead trees</t>
   </si>
   <si>
@@ -108,6 +154,12 @@
     <t>Tag number  621  in tree data set has  X recorded for crown class in sample events PSME-01 00PR02 which is not included in the acceptable list of BAD, CS, LBS, RS, or blank for overstory dead trees</t>
   </si>
   <si>
+    <t>ask Windy if this should be blank?</t>
+  </si>
+  <si>
+    <t>X used for dead trees crown class in 90s</t>
+  </si>
+  <si>
     <t>Tag number  622  in tree data set has  X recorded for crown class in sample events PSME-01 00PR02 which is not included in the acceptable list of BAD, CS, LBS, RS, or blank for overstory dead trees</t>
   </si>
   <si>
@@ -153,15 +205,39 @@
     <t>Tag number  614  in tree data set has  C recorded for crown class in sample events PSME-01 01Year10 which is not included in the acceptable list of BAD, CS, LBS, RS, or blank for overstory dead trees</t>
   </si>
   <si>
+    <t>change to live in FFI</t>
+  </si>
+  <si>
+    <t>tree marked dead in FFI live on data sheet</t>
+  </si>
+  <si>
     <t>Tag number  628  in tree data set has  SC recorded for crown class in sample events PSME-01 01Year10 which is not included in the acceptable list of BAD, CS, LBS, RS, or blank for overstory dead trees</t>
   </si>
   <si>
+    <t>ask Windy about this tree - change to live in FFI? Leave it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marked dead in FFI and on sheet but says subcanopy and sparse foliage so maybe it was alive? </t>
+  </si>
+  <si>
     <t>Tag number  648  in tree data set has RS recorded for crown class in events PSME-01 01Year10 which is not included in the acceptable list of C, D, I, O, SC, or blank for overstory live trees</t>
   </si>
   <si>
+    <t>change to dead in FFI</t>
+  </si>
+  <si>
+    <t>incorectly marked as alive in FFI</t>
+  </si>
+  <si>
     <t xml:space="preserve">X values entered for tree status which do not fit with acceptable values of L or D, problem events are PSME-01 01Year20 tree tag is 590 comments say called branch of 591 in 2013 - verify/adjust FFI (confirmed dead branch-2023) </t>
   </si>
   <si>
+    <t>ESD 12/14/23</t>
+  </si>
+  <si>
+    <t>this "tree" is a confirmed branch of 591 - delete? Make a comment?</t>
+  </si>
+  <si>
     <t>X values entered for tree status which do not fit with acceptable values of L or D, problem events are PSME-01 01Year20 tree tag is 607 comments say called branch of 606 in 2013 - verify/adjust FFI (confirmed branch-2023)</t>
   </si>
   <si>
@@ -171,27 +247,66 @@
     <t>Tree number 307 in plot PSME-01 has been changing DBH when its dead in the following values: 15.4 5.6 5.4 on the following dates 2001-09-14,2003-08-30,2004-07-17</t>
   </si>
   <si>
+    <t>ask windy</t>
+  </si>
+  <si>
+    <t>15.4 is the recorded dbh, comment next to it saying moved from poles datasheet, future years also have the same recorded dbh. I'm confused what happened here. UV2 also says 307 for the pole versions?</t>
+  </si>
+  <si>
     <t>Tree number 595 in plot PSME-01 has been changing DBH when its dead in the following values: 40.2 30.8 38.1 38.1 on the following dates 1997-08-09,2001-09-14,2003-08-30,2004-07-17</t>
   </si>
   <si>
+    <t>check 90s data</t>
+  </si>
+  <si>
+    <t>im confused on the 2001 data sheet - where are the dbhs</t>
+  </si>
+  <si>
     <t>Tree number 611 in plot PSME-01 has been dead for every sampling event but its DBH changes in the following values: 46.9 45.6 on the following dates 1997-08-09, 2001-09-14</t>
   </si>
   <si>
+    <t>45.6 is whats recorded in 2001</t>
+  </si>
+  <si>
     <t>Tree number 1454 in plot PSME-01 has been changing DBH when its dead in the following values: 15.5 17.3 17.6 17.6 on the following dates 1997-08-09,2001-09-14,2003-08-30,2004-07-17</t>
   </si>
   <si>
+    <t>don't know why this was flagged, its alive while changing dbh</t>
+  </si>
+  <si>
     <t>Tree number 624 in plot PSME-01 has been changing DBH when its dead in the following values: 23.4 25.4 25.2 25.2 on the following dates 1997-08-09,2001-09-14,2003-08-30,2004-07-17</t>
   </si>
   <si>
+    <t>check paper data sheets</t>
+  </si>
+  <si>
+    <t>2020 said it was PSEMEN but its been ABCO previously, this its been alive while changing also</t>
+  </si>
+  <si>
     <t>Tree number 636 in plot PSME-01 has been changing DBH when its dead in the following values: 19.4 21 21.2 21.2 on the following dates 1997-08-09,2001-09-14,2003-08-30,2004-07-17</t>
   </si>
   <si>
+    <t>fix function</t>
+  </si>
+  <si>
+    <t>function is broken I think - this was alive while changing</t>
+  </si>
+  <si>
     <t>Tree number 637 in plot PSME-01 has been changing DBH when its dead in the following values: 16.5 18 18.1 18.1 on the following dates 1997-08-09,2001-09-14,2003-08-30,2004-07-17</t>
   </si>
   <si>
+    <t>false flag</t>
+  </si>
+  <si>
     <t>Tree number 641 in plot PSME-01 has been dead for every sampling event but its DBH changes in the following values: 20 17.7 17.8 17.8 17.8 on the following dates 1997-08-09, 2001-09-14, 2003-08-30, 2004-07-17, 2013-08-07</t>
   </si>
   <si>
+    <t>delete future dbhs past 1990</t>
+  </si>
+  <si>
+    <t>its shrinking while dead and we don't need that data</t>
+  </si>
+  <si>
     <t>Tree number 648 in plot PSME-01 has been changing DBH when its dead in the following values: 37.2 38.3 39 39 39 on the following dates 1997-08-09,2001-09-14,2003-08-30,2004-07-17,2013-08-07</t>
   </si>
   <si>
@@ -201,51 +316,111 @@
     <t>Tree number 302 in plot PSME-01 has been changing DBH when its dead in the following values: 3.6 3.7 2.6 on the following dates 2001-09-14,2003-08-30,2004-07-17</t>
   </si>
   <si>
+    <t>change 2004 dbh</t>
+  </si>
+  <si>
+    <t>big shrink after dead - best to keep resting dbh from 2003 which is 3.7</t>
+  </si>
+  <si>
     <t>Tree number 313 in plot PSME-01 has been dead for every sampling event but its DBH changes in the following values: 9.2 8.2 8.2 on the following dates 2001-09-14, 2003-08-30, 2004-07-17</t>
   </si>
   <si>
+    <t>change 03 and 04 dbh to 9.2 (resting dbh)</t>
+  </si>
+  <si>
     <t>Tree number 1773 in plot PSME-01 has been changing DBH when its dead in the following values: 11.7 11.5 13.9 13.9 on the following dates 2001-09-14,2003-08-30,2004-07-17,2013-08-07</t>
   </si>
   <si>
+    <t>tree resurrected so keeping changing dbh makes sense</t>
+  </si>
+  <si>
     <t>Tree number 999 in plot PSME-01 has two different entries for the min date - one alive and one dead, min date is 10082</t>
   </si>
   <si>
+    <t>999 was a placeholder for pole trees without tags in 90s</t>
+  </si>
+  <si>
     <t>Tree number 595 in plot PSME-01 started out dead in 1997-08-09 and then recorded to be alive again in 2001-09-14</t>
   </si>
   <si>
+    <t>check 1997 data sheet</t>
+  </si>
+  <si>
     <t>Tree number 604 in plot PSME-01 started out dead in 1997-08-09 and then recorded to be alive again in 2001-09-14</t>
   </si>
   <si>
+    <t>ask Windy if QUGA can resurrect</t>
+  </si>
+  <si>
     <t>Tree number 606 in plot PSME-01 started out alive in 1997-08-09 was recorded dead in 2001-09-14 and then recorded to be alive again in 2003-08-30 2004-07-17 2008-07-07 2013-08-07</t>
   </si>
   <si>
     <t>Tree number 626 in plot PSME-01 started out alive in 1997-08-09 was recorded dead in 2003-08-30 and then recorded to be alive again in 2004-07-17</t>
   </si>
   <si>
+    <t>ask Windy if ABCO can resurrect</t>
+  </si>
+  <si>
+    <t>can't find 626 on 2004 data sheet</t>
+  </si>
+  <si>
     <t>Tree number 628 in plot PSME-01 started out dead in 1997-08-09 and then recorded to be alive again in 2003-08-30</t>
   </si>
   <si>
+    <t>reevaluate after year 10 gets changed to live</t>
+  </si>
+  <si>
     <t>Tree number 640 in plot PSME-01 started out dead in 1997-08-09 and then recorded to be alive again in 2001-09-14</t>
   </si>
   <si>
+    <t>check 90s data sheet to make sure 1997 says dead</t>
+  </si>
+  <si>
     <t>Tree number 648 in plot PSME-01 started out alive in 1997-08-09 was recorded dead in 2008-07-07 and then recorded to be alive again in 2013-08-07</t>
   </si>
   <si>
+    <t>year 10 change to dead</t>
+  </si>
+  <si>
     <t>Tree number 661 in plot PSME-01 started out dead in 1997-08-09 and then recorded to be alive again in 2001-09-14</t>
   </si>
   <si>
+    <t>check 1997 data sheet if it was live</t>
+  </si>
+  <si>
     <t>Tree number 305 in plot PSME-01 started out dead in 2001-09-14 and then recorded to be alive again in 2003-08-30</t>
   </si>
   <si>
+    <t>CSR 10/13/23</t>
+  </si>
+  <si>
+    <t>ask windy about this tree</t>
+  </si>
+  <si>
+    <t>This one could be true, species is a Quercus and these do resprout.</t>
+  </si>
+  <si>
     <t>Tree number 322 in plot PSME-01 started out alive in 2001-09-14 was recorded dead in 2004-07-17 and then recorded to be alive again in 2008-07-07 2013-08-07</t>
   </si>
   <si>
+    <t>change 2004 to live?</t>
+  </si>
+  <si>
+    <t>These are ABECON and don't typically resprout?</t>
+  </si>
+  <si>
     <t>Tree number 329 in plot PSME-01 started out dead in 2001-09-14 and then recorded to be alive again in 2003-08-30</t>
   </si>
   <si>
+    <t>change 2001 to live?</t>
+  </si>
+  <si>
     <t>Tree number 1773 in plot PSME-01 started out dead in 2001-09-14 and then recorded to be alive again in 2004-07-17</t>
   </si>
   <si>
+    <t>tag change 330 -&gt; 1773 in 2004</t>
+  </si>
+  <si>
     <t>Tag number  911  in tree data set has  X recorded for crown class in sample events PSME-02 00PR01 which is not included in the acceptable list of BAD, CS, LBS, RS, or blank for overstory dead trees</t>
   </si>
   <si>
@@ -285,6 +460,9 @@
     <t>Tag number  902  in tree data set has  BBD recorded for crown class in sample events PSME-02 01Pre which is not included in the acceptable list of BAD, CS, LBS, RS, or blank for overstory dead trees</t>
   </si>
   <si>
+    <t>delete dbh from 2001</t>
+  </si>
+  <si>
     <t>Tag number  898  in tree data set has BAD recorded for crown class in events PSME-02 00PR01 which is not included in the acceptable list of C, D, I, O, SC, or blank for overstory live trees</t>
   </si>
   <si>
@@ -294,18 +472,30 @@
     <t>Tag number  919  in tree data set has CS recorded for crown class in events PSME-02 01Year01 which is not included in the acceptable list of C, D, I, O, SC, or blank for overstory live trees</t>
   </si>
   <si>
+    <t>cant find on data sheet</t>
+  </si>
+  <si>
     <t>The tree DBH in the tree data set has outlier values according to a rosner test, which are 102.6 . They are in events PSME-03 01Post of the duff data table. For reference, the max, min, and mean of tree DBH's are 102.6 2.5 25.5091002888981 respectively The tree DBH in the tree data set has outlier values according to a rosner test, which are 101.5 . They are in events PSME-03 01Year01 of the duff data table. For reference, the max, min, and mean of tree DBH's are 102.6 2.5 25.5091002888981 respectively The tree DBH in the tree data set has outlier values according to a rosner test, which are 101.5 . They are in events PSME-03 01Year10 of the duff data table. For reference, the max, min, and mean of tree DBH's are 102.6 2.5 25.5091002888981 respectively The tree DBH in the tree data set has outlier values according to a rosner test, which are 102.6 . They are in events PSME-03 01Year20 of the duff data table. For reference, the max, min, and mean of tree DBH's are 102.6 2.5 25.5091002888981 respectively The tree DBH in the tree data set has outlier values according to a rosner test, which are 101.5 . They are in events PSME-02 01Year20 of the duff data table. For reference, the max, min, and mean of tree DBH's are 102.6 2.5 25.5091002888981 respectively</t>
   </si>
   <si>
+    <t>year 20 dbh verified</t>
+  </si>
+  <si>
     <t>Values of 33 are recorded for tree DBH that have crown class BBD ,problem events are PSME-02 01Pre</t>
   </si>
   <si>
     <t>7.3 values entered in height for pole tree data which do not fit with acceptable values of 0-10 or NA, problem rows are PSME-02 01Year20</t>
   </si>
   <si>
+    <t>change to 7 in FFI</t>
+  </si>
+  <si>
     <t>Tree number 352 in plot PSME-02 has been changing DBH when its dead in the following values: 2.6 3.5 2.5 on the following dates 2001-09-13,2003-08-29,2004-07-17</t>
   </si>
   <si>
+    <t>change year 01 dbh to 3.5 (resting dbh)</t>
+  </si>
+  <si>
     <t>Tree number 914 in plot PSME-02 has been dead for every sampling event but its DBH changes in the following values: 20 17.2 17.2 17.2 17.2 on the following dates 1997-09-06, 2001-09-13, 2003-08-29, 2004-07-17, 2013-08-06</t>
   </si>
   <si>
@@ -315,12 +505,24 @@
     <t>Tree number 920 in plot PSME-02 has been changing DBH when its dead in the following values: 40.1 40.5 41.8 41.8 on the following dates 1997-09-06,2001-09-13,2003-08-29,2004-07-17</t>
   </si>
   <si>
+    <t>ESD 12/18/23</t>
+  </si>
+  <si>
     <t>Tree number 925 in plot PSME-02 has been changing DBH when its dead in the following values: 29 31 31.1 31.1 on the following dates 1997-09-06,2001-09-13,2003-08-29,2004-07-17</t>
   </si>
   <si>
     <t>Tree number 909 in plot PSME-02 started out alive in 1997-09-06 was recorded dead in 2001-09-13 and then recorded to be alive again in 2003-08-29</t>
   </si>
   <si>
+    <t>ABM 12/19/23</t>
+  </si>
+  <si>
+    <t>change to dead in 2003?</t>
+  </si>
+  <si>
+    <t>data in database reflects physical copies, possibly incorrectly recorded as alive in 2003</t>
+  </si>
+  <si>
     <t>Tree number 912 in plot PSME-02 started out alive in 1997-09-06 was recorded dead in 2008-07-07 and then recorded to be alive again in 2013-08-06</t>
   </si>
   <si>
@@ -417,6 +619,12 @@
     <t>Tag number  807  in tree data set has  BBD recorded for crown class in sample events PSME-03 01Year10 which is not included in the acceptable list of BAD, CS, LBS, RS, or blank for overstory dead trees</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>delete dbh</t>
+  </si>
+  <si>
     <t>Tag number  805  in tree data set has  BBD recorded for crown class in sample events PSME-03 01Year10 which is not included in the acceptable list of BAD, CS, LBS, RS, or blank for overstory dead trees</t>
   </si>
   <si>
@@ -429,6 +637,9 @@
     <t>Tag number  825  in tree data set has X recorded for crown class in events PSME-03 00PR02 which is not included in the acceptable list of C, D, I, O, SC, or blank for overstory live trees</t>
   </si>
   <si>
+    <t>101.5 recorded correctly, tag # goes from 8131 to 813. 102.6 is not in this plot, incorrectly flagged</t>
+  </si>
+  <si>
     <t>Values of 24.8 are recorded for tree DBH that have crown class BBD ,problem events are PSME-03 01Year10</t>
   </si>
   <si>
@@ -450,9 +661,15 @@
     <t>Error found in sample event PSME-03 01Pre tag numbers 832 are duplicated ; differences between data are in Status DBH which have different values of D 20.5 and L 51.9</t>
   </si>
   <si>
+    <t>can't find this tree on the data sheet</t>
+  </si>
+  <si>
     <t>Error found in sample event PSME-03 01Year05 tag numbers 816 are duplicated no differences between data exist</t>
   </si>
   <si>
+    <t>one is a pole in quarter one and one is a tree in quarter 2, both dead with no dbh</t>
+  </si>
+  <si>
     <t>Tree number 814 in plot PSME-03 has been dead for every sampling event but its DBH changes in the following values: 22.2 21.3 19.8 19.8 19.8 on the following dates 1997-08-25, 2001-09-27, 2003-08-29, 2004-07-16, 2013-06-11</t>
   </si>
   <si>
@@ -489,9 +706,18 @@
     <t>Tree number 8111 in plot PSME-03 started out dead in 1997-08-25 and then recorded to be alive again in 2001-09-27</t>
   </si>
   <si>
+    <t>2023 data entered electronically, no data sheet to review (excel=whats in FFI)</t>
+  </si>
+  <si>
     <t>Tag number  404  in tree data set has I recorded for crown class in sample events PSME-04 01Year20 which is not blank, it may mean that a live tree is missing a dbh</t>
   </si>
   <si>
+    <t>ask windy if 2023 dbh should be filled in w year 10 dbh</t>
+  </si>
+  <si>
+    <t>dbh missing from excel sheet</t>
+  </si>
+  <si>
     <t>Tag number  410  in tree data set has  D recorded for crown class in sample events PSME-04 00PR01 which is not included in the acceptable list of BAD, CS, LBS, RS, or blank for overstory dead trees</t>
   </si>
   <si>
@@ -546,9 +772,18 @@
     <t>Tag number  193  in tree data set has  X recorded for crown class in sample events PSME-04 01Year01 which is not included in the acceptable list of BAD, CS, LBS, RS, or blank for overstory dead trees</t>
   </si>
   <si>
+    <t xml:space="preserve">delete X? </t>
+  </si>
+  <si>
+    <t>no crown class for pole tree, but its at 15.1? But its dead? Overall delete X I think…</t>
+  </si>
+  <si>
     <t>Tag number  193  in tree data set has  X recorded for crown class in sample events PSME-04 01Year05 which is not included in the acceptable list of BAD, CS, LBS, RS, or blank for overstory dead trees</t>
   </si>
   <si>
+    <t>no crown class or dbhs were taken in 2008</t>
+  </si>
+  <si>
     <t>Tag number  194  in tree data set has  X recorded for crown class in sample events PSME-04 01Year05 which is not included in the acceptable list of BAD, CS, LBS, RS, or blank for overstory dead trees</t>
   </si>
   <si>
@@ -1963,208 +2198,13 @@
   </si>
   <si>
     <t>639, PSME-10, 01Year20, Ensure live in old data</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>ESD 12/13/23</t>
-  </si>
-  <si>
-    <t>no action - issue recorded and noted</t>
-  </si>
-  <si>
-    <t>correct for PSME 1 Year 20 at least</t>
-  </si>
-  <si>
-    <t>CSR 10/13/23</t>
-  </si>
-  <si>
-    <t>This one could be true, species is a Quercus and these do resprout.</t>
-  </si>
-  <si>
-    <t>These are ABECON and don't typically resprout?</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>look at physical data sheet</t>
-  </si>
-  <si>
-    <t>this year wasn't scanned</t>
-  </si>
-  <si>
-    <t>change to live in FFI</t>
-  </si>
-  <si>
-    <t>tree marked dead in FFI live on data sheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marked dead in FFI and on sheet but says subcanopy and sparse foliage so maybe it was alive? </t>
-  </si>
-  <si>
-    <t>ask Windy about this tree - change to live in FFI? Leave it?</t>
-  </si>
-  <si>
-    <t>change to dead in FFI</t>
-  </si>
-  <si>
-    <t>incorectly marked as alive in FFI</t>
-  </si>
-  <si>
-    <t>ESD 12/14/23</t>
-  </si>
-  <si>
-    <t>this "tree" is a confirmed branch of 591 - delete? Make a comment?</t>
-  </si>
-  <si>
-    <t>15.4 is the recorded dbh, comment next to it saying moved from poles datasheet, future years also have the same recorded dbh. I'm confused what happened here. UV2 also says 307 for the pole versions?</t>
-  </si>
-  <si>
-    <t>ask windy</t>
-  </si>
-  <si>
-    <t>check 1997 data sheet</t>
-  </si>
-  <si>
-    <t>check 90s data</t>
-  </si>
-  <si>
-    <t>im confused on the 2001 data sheet - where are the dbhs</t>
-  </si>
-  <si>
-    <t>45.6 is whats recorded in 2001</t>
-  </si>
-  <si>
-    <t>don't know why this was flagged, its alive while changing dbh</t>
-  </si>
-  <si>
-    <t>check paper data sheets</t>
-  </si>
-  <si>
-    <t>2020 said it was PSEMEN but its been ABCO previously, this its been alive while changing also</t>
-  </si>
-  <si>
-    <t>function is broken I think - this was alive while changing</t>
-  </si>
-  <si>
-    <t>fix function</t>
-  </si>
-  <si>
-    <t>false flag</t>
-  </si>
-  <si>
-    <t>delete future dbhs past 1990</t>
-  </si>
-  <si>
-    <t>its shrinking while dead and we don't need that data</t>
-  </si>
-  <si>
-    <t>big shrink after dead - best to keep resting dbh from 2003 which is 3.7</t>
-  </si>
-  <si>
-    <t>change 03 and 04 dbh to 9.2 (resting dbh)</t>
-  </si>
-  <si>
-    <t>change 2004 dbh</t>
-  </si>
-  <si>
-    <t>tree resurrected so keeping changing dbh makes sense</t>
-  </si>
-  <si>
-    <t>999 was a placeholder for pole trees without tags in 90s</t>
-  </si>
-  <si>
-    <t>ask Windy if QUGA can resurrect</t>
-  </si>
-  <si>
-    <t>ask Windy if ABCO can resurrect</t>
-  </si>
-  <si>
-    <t>can't find 626 on 2004 data sheet</t>
-  </si>
-  <si>
-    <t>reevaluate after year 10 gets changed to live</t>
-  </si>
-  <si>
-    <t>year 10 change to dead</t>
-  </si>
-  <si>
-    <t>check 90s data sheet to make sure 1997 says dead</t>
-  </si>
-  <si>
-    <t>check 1997 data sheet if it was live</t>
-  </si>
-  <si>
-    <t>ask windy about this tree</t>
-  </si>
-  <si>
-    <t>change 2004 to live?</t>
-  </si>
-  <si>
-    <t>change 2001 to live?</t>
-  </si>
-  <si>
-    <t>tag change 330 -&gt; 1773 in 2004</t>
-  </si>
-  <si>
-    <t>delete dbh from 2001</t>
-  </si>
-  <si>
-    <t>cant find on data sheet</t>
-  </si>
-  <si>
-    <t>year 20 dbh verified</t>
-  </si>
-  <si>
-    <t>change to 7 in FFI</t>
-  </si>
-  <si>
-    <t>change year 01 dbh to 3.5 (resting dbh)</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>ESD 12/18/23</t>
-  </si>
-  <si>
-    <t>delete dbh</t>
-  </si>
-  <si>
-    <t>can't find this tree on the data sheet</t>
-  </si>
-  <si>
-    <t>one is a pole in quarter one and one is a tree in quarter 2, both dead with no dbh</t>
-  </si>
-  <si>
-    <t>101.5 recorded correctly, tag # goes from 8131 to 813. 102.6 is not in this plot, incorrectly flagged</t>
-  </si>
-  <si>
-    <t>2023 data entered electronically, no data sheet to review (excel=whats in FFI)</t>
-  </si>
-  <si>
-    <t>ask windy if 2023 dbh should be filled in w year 10 dbh</t>
-  </si>
-  <si>
-    <t>dbh missing from excel sheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delete X? </t>
-  </si>
-  <si>
-    <t>no crown class for pole tree, but its at 15.1? But its dead? Overall delete X I think…</t>
-  </si>
-  <si>
-    <t>no crown class or dbhs were taken in 2008</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2493,18 +2533,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="196.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="196.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2521,1069 +2561,1027 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>644</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>645</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>644</v>
-      </c>
       <c r="C3" t="s">
-        <v>645</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>651</v>
-      </c>
-      <c r="C4" t="s">
-        <v>645</v>
-      </c>
-      <c r="D4" t="s">
-        <v>652</v>
-      </c>
-      <c r="E4" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>651</v>
-      </c>
-      <c r="C5" t="s">
-        <v>645</v>
-      </c>
-      <c r="D5" t="s">
-        <v>652</v>
-      </c>
-      <c r="E5" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>651</v>
-      </c>
-      <c r="C6" t="s">
-        <v>645</v>
-      </c>
-      <c r="D6" t="s">
-        <v>652</v>
-      </c>
-      <c r="E6" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>651</v>
-      </c>
-      <c r="C7" t="s">
-        <v>645</v>
-      </c>
       <c r="D7" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>645</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>645</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>651</v>
-      </c>
-      <c r="C10" t="s">
-        <v>645</v>
-      </c>
-      <c r="D10" t="s">
-        <v>652</v>
-      </c>
-      <c r="E10" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>651</v>
-      </c>
-      <c r="C11" t="s">
-        <v>645</v>
-      </c>
-      <c r="D11" t="s">
-        <v>652</v>
-      </c>
-      <c r="E11" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>651</v>
-      </c>
-      <c r="C12" t="s">
-        <v>645</v>
-      </c>
-      <c r="D12" t="s">
-        <v>652</v>
-      </c>
-      <c r="E12" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>651</v>
-      </c>
-      <c r="C13" t="s">
-        <v>645</v>
-      </c>
-      <c r="D13" t="s">
-        <v>652</v>
-      </c>
-      <c r="E13" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>651</v>
-      </c>
-      <c r="C14" t="s">
-        <v>645</v>
-      </c>
-      <c r="D14" t="s">
-        <v>652</v>
-      </c>
-      <c r="E14" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>651</v>
-      </c>
-      <c r="C15" t="s">
-        <v>645</v>
-      </c>
-      <c r="D15" t="s">
-        <v>652</v>
-      </c>
-      <c r="E15" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>651</v>
-      </c>
-      <c r="C16" t="s">
-        <v>645</v>
-      </c>
-      <c r="D16" t="s">
-        <v>652</v>
-      </c>
-      <c r="E16" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>651</v>
-      </c>
-      <c r="C17" t="s">
-        <v>645</v>
-      </c>
-      <c r="D17" t="s">
-        <v>652</v>
-      </c>
-      <c r="E17" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>651</v>
-      </c>
-      <c r="C18" t="s">
-        <v>645</v>
-      </c>
-      <c r="D18" t="s">
-        <v>652</v>
-      </c>
-      <c r="E18" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>651</v>
-      </c>
-      <c r="C19" t="s">
-        <v>645</v>
-      </c>
-      <c r="D19" t="s">
-        <v>652</v>
-      </c>
-      <c r="E19" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>651</v>
-      </c>
-      <c r="C20" t="s">
-        <v>645</v>
-      </c>
-      <c r="D20" t="s">
-        <v>652</v>
-      </c>
-      <c r="E20" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>651</v>
-      </c>
-      <c r="C21" t="s">
-        <v>645</v>
-      </c>
       <c r="D21" t="s">
-        <v>652</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>651</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>645</v>
-      </c>
-      <c r="D22" t="s">
-        <v>652</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>651</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>645</v>
-      </c>
-      <c r="D23" t="s">
-        <v>652</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>651</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>645</v>
-      </c>
-      <c r="D24" t="s">
-        <v>652</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>651</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>645</v>
-      </c>
-      <c r="D25" t="s">
-        <v>652</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>651</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>645</v>
-      </c>
-      <c r="D26" t="s">
-        <v>652</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>651</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>645</v>
-      </c>
-      <c r="D27" t="s">
-        <v>652</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>651</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>645</v>
-      </c>
-      <c r="D28" t="s">
-        <v>652</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>651</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>645</v>
-      </c>
-      <c r="D29" t="s">
-        <v>652</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>651</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>645</v>
-      </c>
-      <c r="D30" t="s">
-        <v>652</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>651</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>645</v>
-      </c>
-      <c r="D31" t="s">
-        <v>652</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>651</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>645</v>
-      </c>
-      <c r="D32" t="s">
-        <v>652</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>651</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>645</v>
-      </c>
-      <c r="D33" t="s">
-        <v>652</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
         <v>37</v>
       </c>
-      <c r="B34" t="s">
-        <v>651</v>
-      </c>
-      <c r="C34" t="s">
-        <v>645</v>
-      </c>
-      <c r="D34" t="s">
-        <v>652</v>
-      </c>
-      <c r="E34" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>651</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>645</v>
-      </c>
-      <c r="D35" t="s">
-        <v>652</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>645</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>654</v>
+        <v>53</v>
       </c>
       <c r="E36" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>645</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>657</v>
+        <v>56</v>
       </c>
       <c r="E37" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>645</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>658</v>
+        <v>59</v>
       </c>
       <c r="E38" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>660</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>660</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>660</v>
+        <v>62</v>
       </c>
       <c r="D41" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>660</v>
+        <v>62</v>
       </c>
       <c r="D42" t="s">
-        <v>663</v>
+        <v>67</v>
       </c>
       <c r="E42" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>660</v>
+        <v>62</v>
       </c>
       <c r="D43" t="s">
-        <v>665</v>
+        <v>70</v>
       </c>
       <c r="E43" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>660</v>
+        <v>62</v>
       </c>
       <c r="D44" t="s">
-        <v>665</v>
+        <v>70</v>
       </c>
       <c r="E44" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s">
-        <v>644</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>660</v>
+        <v>62</v>
       </c>
       <c r="E45" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>660</v>
+        <v>62</v>
       </c>
       <c r="D46" t="s">
-        <v>669</v>
+        <v>77</v>
       </c>
       <c r="E46" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>644</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>660</v>
+        <v>62</v>
       </c>
       <c r="D47" t="s">
-        <v>672</v>
+        <v>80</v>
       </c>
       <c r="E47" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>644</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>660</v>
+        <v>62</v>
       </c>
       <c r="E48" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>660</v>
+        <v>62</v>
       </c>
       <c r="D49" t="s">
-        <v>674</v>
+        <v>85</v>
       </c>
       <c r="E49" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>644</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>660</v>
+        <v>62</v>
       </c>
       <c r="E50" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>644</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>660</v>
+        <v>62</v>
       </c>
       <c r="E51" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>660</v>
+        <v>62</v>
       </c>
       <c r="D52" t="s">
-        <v>678</v>
+        <v>90</v>
       </c>
       <c r="E52" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>660</v>
+        <v>62</v>
       </c>
       <c r="D53" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="B54" t="s">
-        <v>644</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>660</v>
+        <v>62</v>
       </c>
       <c r="E54" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
-        <v>644</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>660</v>
+        <v>62</v>
       </c>
       <c r="E55" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>660</v>
+        <v>62</v>
       </c>
       <c r="D56" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="B57" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>660</v>
+        <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="B58" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>660</v>
+        <v>62</v>
       </c>
       <c r="D58" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
         <v>62</v>
       </c>
-      <c r="B59" t="s">
-        <v>651</v>
-      </c>
-      <c r="C59" t="s">
-        <v>660</v>
-      </c>
       <c r="D59" t="s">
-        <v>682</v>
+        <v>104</v>
       </c>
       <c r="E59" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="B60" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>660</v>
+        <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="B61" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>660</v>
+        <v>62</v>
       </c>
       <c r="D61" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="B62" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>660</v>
+        <v>62</v>
       </c>
       <c r="D62" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="B63" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>660</v>
+        <v>62</v>
       </c>
       <c r="D63" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" t="s">
+        <v>116</v>
+      </c>
+      <c r="E64" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" t="s">
+        <v>119</v>
+      </c>
+      <c r="E65" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>62</v>
+      </c>
+      <c r="D66" t="s">
+        <v>122</v>
+      </c>
+      <c r="E66" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>62</v>
+      </c>
+      <c r="D67" t="s">
         <v>67</v>
       </c>
-      <c r="B64" t="s">
-        <v>651</v>
-      </c>
-      <c r="C64" t="s">
-        <v>648</v>
-      </c>
-      <c r="D64" t="s">
-        <v>688</v>
-      </c>
-      <c r="E64" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" t="s">
-        <v>651</v>
-      </c>
-      <c r="C65" t="s">
-        <v>660</v>
-      </c>
-      <c r="D65" t="s">
-        <v>689</v>
-      </c>
-      <c r="E65" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" t="s">
-        <v>651</v>
-      </c>
-      <c r="C66" t="s">
-        <v>660</v>
-      </c>
-      <c r="D66" t="s">
-        <v>690</v>
-      </c>
-      <c r="E66" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" t="s">
-        <v>651</v>
-      </c>
-      <c r="C67" t="s">
-        <v>660</v>
-      </c>
-      <c r="D67" t="s">
-        <v>663</v>
-      </c>
       <c r="E67" t="s">
-        <v>691</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3598,9 +3596,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3617,74 +3615,74 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>464</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -3699,9 +3697,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3718,909 +3716,909 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>643</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -4633,16 +4631,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="190.7265625" customWidth="1"/>
+    <col min="1" max="1" width="190.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4659,415 +4657,418 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>645</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>645</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>645</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>645</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>645</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>645</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>645</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>645</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>645</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>645</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>645</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>645</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
         <v>83</v>
       </c>
-      <c r="B14" t="s">
-        <v>651</v>
-      </c>
-      <c r="C14" t="s">
-        <v>660</v>
-      </c>
-      <c r="D14" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" t="s">
-        <v>651</v>
-      </c>
-      <c r="C15" t="s">
-        <v>660</v>
-      </c>
-      <c r="D15" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" t="s">
-        <v>651</v>
-      </c>
-      <c r="C16" t="s">
-        <v>660</v>
-      </c>
-      <c r="D16" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" t="s">
-        <v>651</v>
-      </c>
-      <c r="C17" t="s">
-        <v>660</v>
-      </c>
-      <c r="D17" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" t="s">
-        <v>644</v>
-      </c>
-      <c r="C18" t="s">
-        <v>660</v>
-      </c>
-      <c r="E18" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" t="s">
-        <v>651</v>
-      </c>
-      <c r="C19" t="s">
-        <v>660</v>
-      </c>
-      <c r="D19" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" t="s">
-        <v>651</v>
-      </c>
-      <c r="C20" t="s">
-        <v>660</v>
-      </c>
-      <c r="D20" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" t="s">
-        <v>651</v>
-      </c>
-      <c r="C21" t="s">
-        <v>660</v>
-      </c>
-      <c r="D21" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" t="s">
-        <v>644</v>
-      </c>
-      <c r="C22" t="s">
-        <v>660</v>
-      </c>
-      <c r="E22" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="B24" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D24" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="B25" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D25" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>698</v>
+        <v>156</v>
       </c>
       <c r="D26" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+      <c r="E26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="B27" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D27" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="B28" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D28" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -5080,16 +5081,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D4" sqref="D4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="165.26953125" customWidth="1"/>
+    <col min="1" max="1" width="165.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5106,906 +5107,906 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="B9" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D9" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D13" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D14" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D15" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D16" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D17" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D19" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="B21" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D21" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D22" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="B23" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D23" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="B24" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D24" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="B25" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D25" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="B26" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D26" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="B27" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D27" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
       <c r="B28" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D28" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="B29" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D29" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="B30" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D30" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>697</v>
+        <v>191</v>
       </c>
       <c r="C31" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D31" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="B32" t="s">
-        <v>697</v>
+        <v>191</v>
       </c>
       <c r="C32" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D32" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>697</v>
+        <v>191</v>
       </c>
       <c r="C33" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D33" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="B34" t="s">
-        <v>697</v>
+        <v>191</v>
       </c>
       <c r="C34" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D34" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="B35" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D35" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="B36" t="s">
-        <v>644</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="E36" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>198</v>
       </c>
       <c r="B37" t="s">
-        <v>697</v>
+        <v>191</v>
       </c>
       <c r="C37" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D37" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="B38" t="s">
-        <v>697</v>
+        <v>191</v>
       </c>
       <c r="C38" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D38" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="B39" t="s">
-        <v>697</v>
+        <v>191</v>
       </c>
       <c r="C39" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D39" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="B40" t="s">
-        <v>697</v>
+        <v>191</v>
       </c>
       <c r="C40" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D40" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="B41" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D41" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E41" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="B42" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D42" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E42" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="B43" t="s">
-        <v>697</v>
+        <v>191</v>
       </c>
       <c r="C43" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="E43" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="B44" t="s">
-        <v>697</v>
+        <v>191</v>
       </c>
       <c r="C44" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D44" t="s">
-        <v>663</v>
+        <v>67</v>
       </c>
       <c r="E44" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="B45" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D45" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="B46" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D46" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E46" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>142</v>
+        <v>210</v>
       </c>
       <c r="B47" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D47" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E47" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>211</v>
       </c>
       <c r="B48" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D48" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E48" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c r="B49" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D49" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E49" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="B50" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D50" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E50" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="B51" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D51" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
       <c r="B52" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D52" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E52" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
       <c r="B53" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D53" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E53" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="B54" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D54" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E54" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="B55" t="s">
-        <v>644</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="E55" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="B56" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D56" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E56" t="s">
-        <v>653</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -6018,16 +6019,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="182.1796875" customWidth="1"/>
+    <col min="1" max="1" width="182.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6044,688 +6045,688 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>644</v>
-      </c>
       <c r="C2" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="B3" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>704</v>
+        <v>222</v>
       </c>
       <c r="E3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>153</v>
       </c>
-      <c r="B4" t="s">
-        <v>651</v>
-      </c>
-      <c r="C4" t="s">
-        <v>698</v>
-      </c>
       <c r="D4" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>225</v>
       </c>
       <c r="B5" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="B7" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>229</v>
       </c>
       <c r="B9" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D9" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>230</v>
       </c>
       <c r="B10" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>231</v>
       </c>
       <c r="B11" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>232</v>
       </c>
       <c r="B12" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="B13" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D13" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>234</v>
       </c>
       <c r="B14" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D14" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>235</v>
       </c>
       <c r="B15" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D15" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c r="B16" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D16" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>237</v>
       </c>
       <c r="B17" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D17" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="B18" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="B19" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D19" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>240</v>
       </c>
       <c r="B20" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="B21" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D21" t="s">
-        <v>706</v>
+        <v>242</v>
       </c>
       <c r="E21" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>698</v>
+        <v>153</v>
       </c>
       <c r="D22" t="s">
-        <v>663</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>237</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -6740,9 +6741,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6759,194 +6760,194 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>275</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -6961,9 +6962,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6980,124 +6981,124 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>299</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -7110,11 +7111,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7131,169 +7132,169 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>331</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -7308,9 +7309,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7327,399 +7328,399 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>410</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -7734,9 +7735,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7753,204 +7754,204 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>450</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
